--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelIEnumerableRenderTest/TestRenderIEnumerableHorizontalNoShift.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelIEnumerableRenderTest/TestRenderIEnumerableHorizontalNoShift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>{di:Name}</x:t>
   </x:si>
@@ -40,7 +40,25 @@
     <x:t>{di:Date}</x:t>
   </x:si>
   <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
     <x:t>String parameter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>753465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5456</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -107,10 +125,10 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -119,11 +137,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -440,37 +458,37 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14">
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C2" s="1">
+      <x:c r="C2" s="2">
         <x:v>43040</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>55.76</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F2" s="2" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G2" s="1">
+      <x:c r="G2" s="2">
         <x:v>43041</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="n">
+      <x:c r="H2" s="0">
         <x:v>110</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="J2" s="2" t="s">
+      <x:c r="J2" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="K2" s="1">
+      <x:c r="K2" s="2">
         <x:v>43042</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="n">
+      <x:c r="L2" s="0">
         <x:v>5500.8</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
@@ -484,32 +502,32 @@
       <x:c r="A3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>345</x:v>
+      <x:c r="B3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="n">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="n">
-        <x:v>753465</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="n">
-        <x:v>1533</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="n">
-        <x:v>5456</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14">
